--- a/data/trans_camb/P16A03-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-1.693131970018813</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.06808144898770574</v>
+        <v>0.06808144898770505</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-1.917992539447541</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.450863808648414</v>
+        <v>-7.128078071272393</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.499639968587521</v>
+        <v>-7.307271879830648</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.732629024361509</v>
+        <v>-6.37836376427264</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.194846620258089</v>
+        <v>-1.692425580641613</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.806182820855157</v>
+        <v>-4.648532058365724</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.096491058896822</v>
+        <v>-3.030239749035238</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.982978077499766</v>
+        <v>-4.218834203176117</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.369837567619206</v>
+        <v>-5.509340553416925</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.273474714487358</v>
+        <v>-4.224375660831274</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-2.370727276827659</v>
+        <v>-2.077377768575501</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-2.471080842516383</v>
+        <v>-2.264510394249057</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.11427544468258</v>
+        <v>-1.111830131525766</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.499501812868054</v>
+        <v>5.662981563892014</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.244815479212026</v>
+        <v>1.113791643039123</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.824515273636886</v>
+        <v>2.942735369071678</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3416152987055164</v>
+        <v>0.2417261760160707</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.381196015673585</v>
+        <v>-1.549683638316723</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.05911143076450568</v>
+        <v>-0.1226078247329604</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.3560895789537059</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0143184907815077</v>
+        <v>0.01431849078150755</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.35521220092783</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.926917021178675</v>
+        <v>-0.9272400464965879</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.9325861690942232</v>
+        <v>-0.9278507313942058</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8357000898827774</v>
+        <v>-0.8044797837215185</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3565442062014985</v>
+        <v>-0.2850559377849829</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7434155736794528</v>
+        <v>-0.7263514707728485</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4594633558967374</v>
+        <v>-0.4493640707686014</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6136776961719045</v>
+        <v>-0.6348227062474679</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8030224912629185</v>
+        <v>-0.814298524163137</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5985341257457546</v>
+        <v>-0.6032047463801491</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.3941404064332818</v>
+        <v>-0.3858146523806711</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.4526746580707877</v>
+        <v>-0.3914747745220808</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.2055138154558697</v>
+        <v>-0.1979624730970723</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.735839815042796</v>
+        <v>1.797990393133584</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4573245779281309</v>
+        <v>0.3793199692613256</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9714909255700378</v>
+        <v>0.9831181987205183</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0914707395030689</v>
+        <v>0.06131184694082004</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.3069005983447546</v>
+        <v>-0.3316255075838291</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.003231625929133624</v>
+        <v>-0.01080740555052923</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.6145471169216541</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4646642555363094</v>
+        <v>0.4646642555363092</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>3.938121925517606</v>
@@ -878,7 +878,7 @@
         <v>0.7369525620331625</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.05552495086625434</v>
+        <v>-0.05552495086625468</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.197773769266991</v>
+        <v>-1.122589678879973</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.081206915272454</v>
+        <v>-1.099153996869757</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.170435691949054</v>
+        <v>-1.284916528594422</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5935917479823186</v>
+        <v>0.3896806198593197</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.835506115122114</v>
+        <v>-1.921963230306325</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.907889041369134</v>
+        <v>-3.025445148759059</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06537373204875049</v>
+        <v>-0.0178324949664749</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.097863800381544</v>
+        <v>-1.074853973258301</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.516208837279678</v>
+        <v>-1.63306312833174</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.659233532177728</v>
+        <v>3.052416692808257</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.216272103752231</v>
+        <v>2.219770490609351</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.812823521244663</v>
+        <v>1.711762197367149</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.889896006530023</v>
+        <v>7.888549545726129</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.110232899837692</v>
+        <v>4.048471430221102</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.533326974939601</v>
+        <v>1.612741831357412</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.128309231931045</v>
+        <v>3.889523096222975</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.348593895707357</v>
+        <v>2.346005125591361</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.377383103141261</v>
+        <v>1.23246696460214</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.6464564396598577</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.4887911634438529</v>
+        <v>0.4887911634438528</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.060979901626876</v>
@@ -983,7 +983,7 @@
         <v>0.3148801072603709</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.02372432553346117</v>
+        <v>-0.02372432553346132</v>
       </c>
     </row>
     <row r="14">
@@ -994,29 +994,27 @@
         </is>
       </c>
       <c r="C14" s="6" t="inlineStr"/>
-      <c r="D14" s="6" t="n">
-        <v>-0.7975805285680467</v>
-      </c>
+      <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>-0.7407789232974908</v>
+        <v>-0.7086176421411752</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.06029722030154933</v>
+        <v>-0.008152535461047355</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4074620807607162</v>
+        <v>-0.3997544125541252</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5391819104566067</v>
+        <v>-0.5559748432770812</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.06565753448129369</v>
+        <v>-0.07586906950795688</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3366418661673538</v>
+        <v>-0.3637962295872126</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4590996721202527</v>
+        <v>-0.4790829112663826</v>
       </c>
     </row>
     <row r="15">
@@ -1027,29 +1025,27 @@
         </is>
       </c>
       <c r="C15" s="6" t="inlineStr"/>
-      <c r="D15" s="6" t="n">
-        <v>8.77626347757203</v>
-      </c>
+      <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>7.697304343628992</v>
+        <v>5.8256047907792</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.191088674041541</v>
+        <v>3.120720622514599</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.939853328884906</v>
+        <v>1.777765234617655</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6856521436779388</v>
+        <v>0.703491387263885</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.50331724817634</v>
+        <v>2.250846244186402</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.50911791654313</v>
+        <v>1.466280739206157</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.8667396790456605</v>
+        <v>0.823666950154807</v>
       </c>
     </row>
     <row r="16">
@@ -1079,7 +1075,7 @@
         <v>-1.983065253818132</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.931225750512064</v>
+        <v>1.931225750512062</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-1.239265107963614</v>
@@ -1088,7 +1084,7 @@
         <v>-1.639160801734312</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.9948268244184898</v>
+        <v>0.994826824418489</v>
       </c>
     </row>
     <row r="17">
@@ -1099,31 +1095,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.538174661925721</v>
+        <v>-2.492343978685216</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.145743974436302</v>
+        <v>-3.247076054608684</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.654826453525305</v>
+        <v>-1.500241395369569</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.315214016594933</v>
+        <v>-8.445252592070016</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.044768058658842</v>
+        <v>-7.287268592320786</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.832513230492611</v>
+        <v>-3.275740047176099</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.171529621794912</v>
+        <v>-3.282225578035467</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.607320352972438</v>
+        <v>-3.534284473972833</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.000459986020738</v>
+        <v>-1.071601123062463</v>
       </c>
     </row>
     <row r="18">
@@ -1134,31 +1130,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.011574532994413</v>
+        <v>1.058778501992549</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.1556796143637321</v>
+        <v>-0.07612665998773351</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.433135334022435</v>
+        <v>2.531208022888833</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.029248494471706</v>
+        <v>0.8948875610000119</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.783726951451844</v>
+        <v>3.189297201731849</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.179259589723097</v>
+        <v>7.304202260093613</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5828245715211032</v>
+        <v>0.5713351384845481</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.008198859672750261</v>
+        <v>0.05842884028024501</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.066693426470091</v>
+        <v>2.914840467049592</v>
       </c>
     </row>
     <row r="19">
@@ -1184,7 +1180,7 @@
         <v>-0.2575077955093017</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2507762589696237</v>
+        <v>0.2507762589696235</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.3301125011674144</v>
@@ -1193,7 +1189,7 @@
         <v>-0.4366357679231824</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.2649996107587225</v>
+        <v>0.2649996107587223</v>
       </c>
     </row>
     <row r="20">
@@ -1204,31 +1200,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7256006517187968</v>
+        <v>-0.7360327453834795</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8864907790114861</v>
+        <v>-0.9094202549518384</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5031990409922216</v>
+        <v>-0.5081721936618304</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.7658996856314703</v>
+        <v>-0.77621548224166</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7361313877632524</v>
+        <v>-0.7018228922544496</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3685046124908772</v>
+        <v>-0.3194529336693207</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6561941364771848</v>
+        <v>-0.6507805872553685</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7269636121018344</v>
+        <v>-0.7197807942812596</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2046469861476112</v>
+        <v>-0.2359612380863052</v>
       </c>
     </row>
     <row r="21">
@@ -1239,31 +1235,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7015669170034862</v>
+        <v>0.7240727280543938</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.02263539820697625</v>
+        <v>0.16379433479226</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.614146715760723</v>
+        <v>1.344067182906466</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3029189221091887</v>
+        <v>0.2605135586860788</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8390354455502707</v>
+        <v>0.8312808592778027</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.517093012475521</v>
+        <v>1.585601778403884</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2558499280803061</v>
+        <v>0.2366125902342188</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.08608918978048659</v>
+        <v>0.08680298716284576</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.100414777021909</v>
+        <v>1.056943739939272</v>
       </c>
     </row>
     <row r="22">
@@ -1302,7 +1298,7 @@
         <v>-0.02144221691662423</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.9502382953811586</v>
+        <v>0.9502382953811592</v>
       </c>
     </row>
     <row r="23">
@@ -1313,31 +1309,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.514372709607365</v>
+        <v>-1.510121278301788</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.9954262644296398</v>
+        <v>-0.9303484074745207</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.1537830759332969</v>
+        <v>-0.1056561419433834</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.9967419713566276</v>
+        <v>-0.8733733864670058</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.378115700068169</v>
+        <v>-2.431183290381761</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.615761981218016</v>
+        <v>-1.728606342806676</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.6256863671421288</v>
+        <v>-0.5932782951329942</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.150408153797642</v>
+        <v>-1.026233604687669</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.1225401138652991</v>
+        <v>-0.235259707705512</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1344,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3606154248540342</v>
+        <v>0.4504872651562882</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.104138787956927</v>
+        <v>1.145336453712985</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.220720796509131</v>
+        <v>2.178989399787068</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.858615211966347</v>
+        <v>3.868850675302101</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.501421863897229</v>
+        <v>1.652526605082467</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.309091481817513</v>
+        <v>2.346467812487934</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.532646533384068</v>
+        <v>1.39220758510674</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9779081767692096</v>
+        <v>0.9591791736632095</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.961748626811109</v>
+        <v>1.883633351519813</v>
       </c>
     </row>
     <row r="25">
@@ -1407,7 +1403,7 @@
         <v>-0.008150873214817386</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3612160020408653</v>
+        <v>0.3612160020408656</v>
       </c>
     </row>
     <row r="26">
@@ -1418,31 +1414,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6950820728160935</v>
+        <v>-0.6934730548648024</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5077768442852805</v>
+        <v>-0.4655029366557965</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1262586879740185</v>
+        <v>-0.09612904292280461</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1835098965466781</v>
+        <v>-0.1734400041359583</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4442820950748914</v>
+        <v>-0.4456384500673979</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2849697629271438</v>
+        <v>-0.2926348054641346</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2006048135690709</v>
+        <v>-0.2001203705762389</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3544555330720324</v>
+        <v>-0.3405331228662369</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.04436536411674728</v>
+        <v>-0.08491778898811657</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1449,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3911489619908493</v>
+        <v>0.4110920257521837</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.05342912837859</v>
+        <v>1.053858180468739</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.04295690415593</v>
+        <v>1.996017218534877</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.160283586408148</v>
+        <v>1.13798659995696</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4279942198371015</v>
+        <v>0.4868881689971373</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6995737698321676</v>
+        <v>0.7323282998376244</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6871959835888922</v>
+        <v>0.6262313541524823</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4510945549375514</v>
+        <v>0.4355237706400625</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9059494390796017</v>
+        <v>0.8186551529622643</v>
       </c>
     </row>
     <row r="28">
@@ -1516,7 +1512,7 @@
         <v>-0.3770197448694529</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.526928253918245</v>
+        <v>1.526928253918244</v>
       </c>
     </row>
     <row r="29">
@@ -1527,31 +1523,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.167245274274634</v>
+        <v>-2.885182417378786</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.26102840040882</v>
+        <v>-3.317395849205761</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.090752024859861</v>
+        <v>-1.886901758297323</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8511889542587133</v>
+        <v>0.8666044837442414</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.779652694338448</v>
+        <v>-1.858375785934836</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.4105451914949461</v>
+        <v>0.547895323055543</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.1391168972664031</v>
+        <v>-0.1145029456533404</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.913463050489366</v>
+        <v>-1.862950525988015</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.05514089000718454</v>
+        <v>0.1233215107909958</v>
       </c>
     </row>
     <row r="30">
@@ -1562,31 +1558,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.79961763912464</v>
+        <v>0.7606309494528284</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5051621561641487</v>
+        <v>0.4094591735264053</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.058492502513154</v>
+        <v>2.115614111002217</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.817642449708769</v>
+        <v>5.790731606650684</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.528732182147842</v>
+        <v>2.470595840077985</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.39586925206292</v>
+        <v>4.500510149397272</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.21812839366764</v>
+        <v>3.26169612776623</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.068027662159418</v>
+        <v>1.172774680929505</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.865534480593051</v>
+        <v>2.994667316803479</v>
       </c>
     </row>
     <row r="31">
@@ -1621,7 +1617,7 @@
         <v>-0.1211405068654781</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.4906185024631122</v>
+        <v>0.4906185024631119</v>
       </c>
     </row>
     <row r="32">
@@ -1632,31 +1628,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.8250577540774832</v>
+        <v>-0.8083502928649317</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8227819539605578</v>
+        <v>-0.8668322764546544</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.557982649901542</v>
+        <v>-0.5371388134907058</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1499679104070649</v>
+        <v>0.1576700571578133</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3748726539815178</v>
+        <v>-0.3938705223048755</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07261465721448106</v>
+        <v>0.08943319133722692</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.04457141114280926</v>
+        <v>-0.03903905518818858</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4658424562035487</v>
+        <v>-0.4616386476693812</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.01399889854856882</v>
+        <v>0.01400641963993745</v>
       </c>
     </row>
     <row r="33">
@@ -1667,31 +1663,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8907805167432038</v>
+        <v>0.7910098125116544</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6598268581242139</v>
+        <v>0.4098642236756329</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.963853434916408</v>
+        <v>1.883860571472751</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.285893068581057</v>
+        <v>2.317163364769957</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.046674140497688</v>
+        <v>0.9998608915994399</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.911561364652989</v>
+        <v>2.034877977377305</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.335573951877745</v>
+        <v>1.450475760805491</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4612460947042742</v>
+        <v>0.5460785183895704</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.288726445169124</v>
+        <v>1.378927522159472</v>
       </c>
     </row>
     <row r="34">
@@ -1721,7 +1717,7 @@
         <v>-2.518399843382038</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-1.852831699990878</v>
+        <v>-1.852831699990879</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-1.319129536128314</v>
@@ -1741,31 +1737,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.2803019642926785</v>
+        <v>-0.277931584716423</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.6328656627623136</v>
+        <v>-0.6311340304540974</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.6293768959132175</v>
+        <v>-0.6255531483843153</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.645140305625733</v>
+        <v>-3.761802467051877</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.586596583116383</v>
+        <v>-4.455254839287797</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.714805156935344</v>
+        <v>-3.882294822668713</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.045110258337937</v>
+        <v>-2.942456357843753</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.668043107661002</v>
+        <v>-3.741068955641729</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-3.327995724282768</v>
+        <v>-3.120303086206065</v>
       </c>
     </row>
     <row r="36">
@@ -1776,31 +1772,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.595166798942467</v>
+        <v>2.619950377378731</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.9892820194192898</v>
+        <v>0.9880627995655051</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.924253757929378</v>
+        <v>3.273520289820401</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.07342411779664108</v>
+        <v>0.1801344850434525</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-0.6246782697802459</v>
+        <v>-0.7490238077809531</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.1425078429542868</v>
+        <v>0.1713547385781546</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.3539151379503286</v>
+        <v>0.3735088885037017</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-0.6879153844766955</v>
+        <v>-0.6326227382379989</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.00842495933896608</v>
+        <v>0.2309364631577082</v>
       </c>
     </row>
     <row r="37">
@@ -1826,7 +1822,7 @@
         <v>-0.365744595088316</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.2690848245010629</v>
+        <v>-0.269084824501063</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.2347607514618528</v>
@@ -1835,7 +1831,7 @@
         <v>-0.3736639500556282</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.2737567318550554</v>
+        <v>-0.2737567318550556</v>
       </c>
     </row>
     <row r="38">
@@ -1849,22 +1845,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.4706043450969997</v>
+        <v>-0.4845598864957246</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5750788015801983</v>
+        <v>-0.5669506390421145</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.4767976694951784</v>
+        <v>-0.4849253789907591</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.4648058829177644</v>
+        <v>-0.4588782665480841</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.5658819925326837</v>
+        <v>-0.5694389727512352</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4960932038391773</v>
+        <v>-0.4819253715874685</v>
       </c>
     </row>
     <row r="39">
@@ -1878,22 +1874,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>0.01600681285341362</v>
+        <v>0.03576538055820225</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.1053243143451585</v>
+        <v>-0.1295548479277229</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.02831487291081764</v>
+        <v>0.03455315949066882</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.08772677892090681</v>
+        <v>0.08555317304989139</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.129491252411105</v>
+        <v>-0.1136832101564737</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.01918150037023772</v>
+        <v>0.05902254679380897</v>
       </c>
     </row>
     <row r="40">
@@ -1914,7 +1910,7 @@
         <v>-0.9612880647906826</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-0.002558327145133973</v>
+        <v>-0.00255832714513432</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0.648375996656269</v>
@@ -1943,31 +1939,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.553526497010923</v>
+        <v>-1.561894805295582</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.707734023189204</v>
+        <v>-1.590550925959229</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.7268861172368443</v>
+        <v>-0.6881771787025397</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.4707810484839224</v>
+        <v>-0.5259540665453424</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.21467163248168</v>
+        <v>-2.191339008713526</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.106390100363236</v>
+        <v>-1.052224067338928</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.8449642959120681</v>
+        <v>-0.7990050195289252</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.655795039552262</v>
+        <v>-1.700851323476605</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.6389706259669041</v>
+        <v>-0.5650837244495609</v>
       </c>
     </row>
     <row r="42">
@@ -1978,31 +1974,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.2448861595460351</v>
+        <v>-0.1867530233700903</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.3397582520274502</v>
+        <v>-0.2856859471933966</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.7178917821987398</v>
+        <v>0.7101384020937221</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.790600153787992</v>
+        <v>1.697128584886872</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.1295479418882879</v>
+        <v>-0.113027671073465</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.7969307210243708</v>
+        <v>0.914924443144823</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.5787869332151471</v>
+        <v>0.5455030012784736</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-0.5238592409696171</v>
+        <v>-0.4959900815691649</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.5629058287945071</v>
+        <v>0.6059387365531966</v>
       </c>
     </row>
     <row r="43">
@@ -2019,7 +2015,7 @@
         <v>-0.4288663454726246</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.001141364855597086</v>
+        <v>-0.001141364855597241</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.1218956815154474</v>
@@ -2048,31 +2044,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.6117966120461005</v>
+        <v>-0.5966742979048444</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6247494806082057</v>
+        <v>-0.5983731039387647</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2816492059362151</v>
+        <v>-0.2715237195126972</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.07754081428768615</v>
+        <v>-0.08658363851834361</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3733477412229753</v>
+        <v>-0.3686901287341774</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1851624989378697</v>
+        <v>-0.176165210258253</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2021245992950683</v>
+        <v>-0.1925365185242577</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.402253317805117</v>
+        <v>-0.4034571033105483</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1532329125611442</v>
+        <v>-0.1378078124664153</v>
       </c>
     </row>
     <row r="45">
@@ -2083,31 +2079,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.132754648249847</v>
+        <v>-0.09515003119276619</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.181162854755389</v>
+        <v>-0.1428824868412137</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3858678947222626</v>
+        <v>0.383178020845795</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3807463665404475</v>
+        <v>0.3636191228623867</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.02606987400029248</v>
+        <v>-0.01840378405720969</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.165463089385511</v>
+        <v>0.1981831119586661</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1684769117976629</v>
+        <v>0.1546421811693964</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.1425633919132264</v>
+        <v>-0.1426522494694921</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.1640625141975135</v>
+        <v>0.1741619308675896</v>
       </c>
     </row>
     <row r="46">
